--- a/src/main/resources/static/excel/stock.xlsx
+++ b/src/main/resources/static/excel/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\mailbom\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2106D0-6A42-4C3A-A5F9-67D356508C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB69566-82EC-45D2-8600-0BCE6B26AB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D0878F3-230C-4D03-9AC6-2C34C504D2EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3D0878F3-230C-4D03-9AC6-2C34C504D2EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="J3")
+jx:area(lastCell="L3")
 </t>
         </r>
       </text>
@@ -85,7 +85,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="list" var="vo" varIndex="index" lastCell="J3")</t>
+jx:each(items="list" var="vo" varIndex="index" lastCell="L3")</t>
         </r>
       </text>
     </comment>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>NO.
 null</t>
@@ -174,6 +174,22 @@
   </si>
   <si>
     <t>${vo.outWy}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출고창고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟창고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${vo.fromStorage}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${vo.toStorage}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EA0BA4-71FB-4E66-A4ED-2616ECDE7161}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -615,10 +631,11 @@
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -635,22 +652,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -661,8 +684,10 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -679,18 +704,24 @@
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/src/main/resources/static/excel/stock.xlsx
+++ b/src/main/resources/static/excel/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\mailbom\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB69566-82EC-45D2-8600-0BCE6B26AB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE028EDB-43F4-4F83-ADAE-0D96C2CB9464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3D0878F3-230C-4D03-9AC6-2C34C504D2EA}"/>
   </bookViews>
@@ -60,7 +60,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="L3")
+jx:area(lastCell="N3")
 </t>
         </r>
       </text>
@@ -85,7 +85,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="list" var="vo" varIndex="index" lastCell="L3")</t>
+jx:each(items="list" var="vo" varIndex="index" lastCell="N3")</t>
         </r>
       </text>
     </comment>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>NO.
 null</t>
@@ -117,14 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>출고사유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납품처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메모</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,39 +149,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${vo.csmNm}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${vo.memo}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${vo.RegId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${vo.RegDt}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${vo.outWy}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출고창고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟창고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${vo.fromStorage}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${vo.toStorage}</t>
+    <t>잔여수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${vo.restCnt}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보관창고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로트번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${vo.lotNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유통기한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${vo.expDt}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${vo.regId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${vo.regDt}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${vo.modId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${vo.modDt}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EA0BA4-71FB-4E66-A4ED-2616ECDE7161}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -631,11 +647,11 @@
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -652,28 +668,34 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="2.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -686,43 +708,51 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/excel/stock.xlsx
+++ b/src/main/resources/static/excel/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\mailbom\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE028EDB-43F4-4F83-ADAE-0D96C2CB9464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22956D8-AAE3-4E0E-8C1D-F5F744ECB504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3D0878F3-230C-4D03-9AC6-2C34C504D2EA}"/>
   </bookViews>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>입출고번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +202,10 @@
   </si>
   <si>
     <t>${vo.modDt}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +637,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -656,43 +656,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="2.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -713,46 +713,46 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
